--- a/params/substituicoes.xlsx
+++ b/params/substituicoes.xlsx
@@ -10,19 +10,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhWscxEUCNeUB0c8m1s1gK49m0TiQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgIG3Pz+SnR0Ry/23+YZ59B/K6nOw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>buscar</t>
+  </si>
   <si>
     <t>padrao</t>
-  </si>
-  <si>
-    <t>buscar</t>
   </si>
   <si>
     <t>substituir_por</t>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>teste</t>
+  </si>
+  <si>
+    <t>novo_teste</t>
+  </si>
+  <si>
+    <t>isto é um teste</t>
   </si>
 </sst>
 </file>
@@ -67,6 +73,7 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -103,6 +110,9 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -331,12 +341,12 @@
     <col customWidth="1" min="1" max="2" width="22.5"/>
     <col customWidth="1" min="3" max="3" width="70.63"/>
     <col customWidth="1" hidden="1" min="4" max="6" width="8.0"/>
-    <col customWidth="1" min="7" max="26" width="7.63"/>
+    <col customWidth="1" hidden="1" min="7" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -372,8 +382,12 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -28366,12 +28380,12 @@
     <col customWidth="1" min="4" max="4" width="44.38"/>
     <col customWidth="1" min="5" max="5" width="22.5"/>
     <col customWidth="1" min="6" max="6" width="70.63"/>
-    <col customWidth="1" min="7" max="26" width="7.63"/>
+    <col customWidth="1" hidden="1" min="7" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
